--- a/biology/Botanique/James_Greenlief_Brown/James_Greenlief_Brown.xlsx
+++ b/biology/Botanique/James_Greenlief_Brown/James_Greenlief_Brown.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Greenlief Brown est un botaniste américain, né le 21 novembre 1880 à Saint-Clair dans le Michigan et mort le 1er avril 1954.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de George Simeon Brown et d’Ida Evely née Graham. Il étudie au Ferris Institute de Big Rapids dans le Michigan et obtient son Bachelor of Sciences à l’université de Chicago en 1916, son Master of Sciences en 1917 et son doctorat en 1925. Il se marie avec Clara May MacNeil le 5 juin 1912.
 Il est devient assistant de laboratoire à l’université de Chicago de 1907 à 1908, puis de 1909 à 1911, chercheur assistant au Carnegie Desert Laboratory de Tucson, de 1909 à 1915, instructeur de biologie à l’université de l'Arizona, de 1916 à 1919, professeur assistant de biologie, enfin, de 1920 à 1952, professeur de pathologie végétale à la station agricole expérimentale qu’il dirige à partir de 1922.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Allen G. Debus (dir.), World Who’s Who in Science : A Biographical Dictionary of Notable Scientists from Antiquity to the Present., Chicago, Marquis-Who’s Who, 1968, 1855 p..</t>
         </is>
